--- a/Gold Platinum/Teste de Valores na Venda2.0.xlsx
+++ b/Gold Platinum/Teste de Valores na Venda2.0.xlsx
@@ -26,6 +26,31 @@
     <author>Rafael Augusto Diniz dos Santos Reis</author>
   </authors>
   <commentList>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+caso verdadeiro o estabelecimento é obrigado por contrato a dar bônus aos clientes, caso falso a subfranquia do estabelecimento deixa de receber e esse dinheiro vai para o bônus do cliente.
+Caso falso e mesmo assim o estabelecimento der bônus esse bônus vai para o cliente e o dinheiro que a subfranquia iria receber vai para projeto social</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -159,12 +184,133 @@
         </r>
       </text>
     </comment>
+    <comment ref="I18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lembrando que o Bônus que ele está recebendo é igual ao valor que a subfranquia receberia, porém ela deixa de receber por não ter Bônus no contrato</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rafael Augusto Diniz dos Santos Reis:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>O ganho de indicação de subfranquia não vai aparecer do extrato porque foi lançado como bônus para o usuário</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse valor é menor do que os de cima porque o ganho do usuário não paga royalt.
+E também não foi dado a bonificação ao usuário, então a franqueadora não ganha a porcentagem do bônus.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lembrando que o Bônus que ele está recebendo é igual ao valor que a subfranquia receberia, porém ela deixa de receber por não ter Bônus no contrato</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus do usuário do cartão.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="86">
   <si>
     <t>Operação</t>
   </si>
@@ -413,6 +559,27 @@
   </si>
   <si>
     <t>0,009375/0,013125/25</t>
+  </si>
+  <si>
+    <t>Venda 36</t>
+  </si>
+  <si>
+    <t>0,015625/0/25</t>
+  </si>
+  <si>
+    <t>Estab De Fmaster</t>
+  </si>
+  <si>
+    <t>0,0375/0,015/0</t>
+  </si>
+  <si>
+    <t>0,009375/0,015625/25</t>
+  </si>
+  <si>
+    <t>0,00375/0,00375/25</t>
+  </si>
+  <si>
+    <t>0/0/0,01</t>
   </si>
 </sst>
 </file>
@@ -478,7 +645,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,8 +688,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -827,12 +1006,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -857,12 +1111,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -889,6 +1137,49 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -896,6 +1187,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD62A2A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -922,7 +1218,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1325,11 +1620,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1314710992"/>
-        <c:axId val="-1314713168"/>
+        <c:axId val="1761054496"/>
+        <c:axId val="1761045792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1314710992"/>
+        <c:axId val="1761054496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1667,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1314713168"/>
+        <c:crossAx val="1761045792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1380,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1314713168"/>
+        <c:axId val="1761045792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1431,7 +1726,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1314710992"/>
+        <c:crossAx val="1761054496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1445,7 +1740,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2071,7 +2365,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:I12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,501 +3064,501 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-    </row>
-    <row r="3" spans="1:17" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>21</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="28">
         <v>10</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="28">
         <v>0.5</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="28">
         <v>0</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="28">
         <v>8.5</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="28">
         <v>1</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="28">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:17" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>21</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="29">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:17" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="79">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="79">
         <v>10</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="79">
         <v>0.5</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="79">
         <v>0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="79">
         <v>8.5</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="79">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="79">
         <v>0.86375000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="27" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:17" s="25" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>24</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="30">
         <v>10</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>0.5</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <v>0</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="30">
         <v>8.5</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="30">
         <v>1</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="30">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="45" t="s">
+      <c r="Q6" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:17" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="32">
         <v>24</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>10</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <v>0.5</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>0</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="32">
         <v>8.5</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="32">
         <v>1</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="32">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="P7" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="47" t="s">
+      <c r="Q7" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="27" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:17" s="25" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>21</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>10</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>0.5</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25">
         <v>0</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="25">
         <v>8.5</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="25">
         <v>1</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="25">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="28" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:17" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="34">
         <v>24</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="34">
         <v>10</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="34">
         <v>0.5</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="34">
         <v>0</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="34">
         <v>8.5</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="34">
         <v>1</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="34">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="41" t="s">
+      <c r="Q9" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:17" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="36">
         <v>24</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>10</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="36">
         <v>0.5</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="36">
         <v>0</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="36">
         <v>8.5</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="36">
         <v>1</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L10" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="38">
+      <c r="O10" s="36">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P10" s="38" t="s">
+      <c r="P10" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="Q10" s="43" t="s">
+      <c r="Q10" s="41" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="26">
         <v>0.86124999999999996</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="P11" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="81">
         <v>24</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="81">
         <v>10</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="81">
         <v>0.5</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="81">
         <v>0</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="81">
         <v>8.5</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="81">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="79">
         <v>0.86375000000000002</v>
       </c>
     </row>
@@ -3285,43 +3579,43 @@
         <v>0.86375000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="52">
         <v>0.86375000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="52">
         <v>0.86375000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -3336,165 +3630,444 @@
         <v>0.86375000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+    </row>
+    <row r="18" spans="1:17" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J18" t="s">
+      <c r="B18" s="65">
+        <v>27</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="65">
+        <v>10</v>
+      </c>
+      <c r="E18" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="65">
+        <v>0</v>
+      </c>
+      <c r="H18" s="65">
+        <v>9.5</v>
+      </c>
+      <c r="I18" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="J18" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L18" s="66" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="M18" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="66">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="P18" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="J19" t="s">
+      <c r="B19" s="69">
+        <v>27</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="69">
+        <v>10</v>
+      </c>
+      <c r="E19" s="69">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="69">
+        <v>0</v>
+      </c>
+      <c r="H19" s="69">
+        <v>9.5</v>
+      </c>
+      <c r="I19" s="69">
+        <v>0.01</v>
+      </c>
+      <c r="J19" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="69">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="P19" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="70" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="79" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="79" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J20" t="s">
+      <c r="B21" s="72">
+        <v>25</v>
+      </c>
+      <c r="C21" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="72">
+        <v>10</v>
+      </c>
+      <c r="E21" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="72">
+        <v>0</v>
+      </c>
+      <c r="H21" s="72">
+        <v>9.5</v>
+      </c>
+      <c r="I21" s="72">
+        <v>0.01</v>
+      </c>
+      <c r="J21" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K21" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L21" s="72" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="M21" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="72">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="P21" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q21" s="73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="J21" t="s">
+      <c r="B22" s="75">
+        <v>25</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="75">
+        <v>10</v>
+      </c>
+      <c r="E22" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="75">
+        <v>0</v>
+      </c>
+      <c r="H22" s="75">
+        <v>9.5</v>
+      </c>
+      <c r="I22" s="75">
+        <v>0.01</v>
+      </c>
+      <c r="J22" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="K21" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K22" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="75" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M22" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="75">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="P22" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q22" s="76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
+      <c r="I23">
+        <v>0.01</v>
+      </c>
       <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="53" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="M23" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="J24" t="s">
+      <c r="B24" s="84">
+        <v>25</v>
+      </c>
+      <c r="C24" s="84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="84">
+        <v>10</v>
+      </c>
+      <c r="E24" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="84">
+        <v>0</v>
+      </c>
+      <c r="H24" s="84">
+        <v>9.5</v>
+      </c>
+      <c r="I24" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="J24" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="84" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="M24" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="84">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="P24" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="J25" t="s">
+      <c r="B25" s="87">
+        <v>25</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="87">
+        <v>10</v>
+      </c>
+      <c r="E25" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="87">
+        <v>0</v>
+      </c>
+      <c r="H25" s="87">
+        <v>9.5</v>
+      </c>
+      <c r="I25" s="87">
+        <v>0.01</v>
+      </c>
+      <c r="J25" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="87">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="P25" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="78">
+        <v>25</v>
+      </c>
+      <c r="C26" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="78">
+        <v>10</v>
+      </c>
+      <c r="E26" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="78">
+        <v>0</v>
+      </c>
+      <c r="H26" s="78">
+        <v>9.5</v>
+      </c>
+      <c r="I26" s="78">
+        <v>0.01</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="78">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="P26" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="79" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -3504,38 +4077,38 @@
       <c r="J28" t="s">
         <v>45</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L29" s="52" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" s="52" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3546,248 +4119,276 @@
       <c r="J31" t="s">
         <v>45</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J33" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L33" s="62" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J34" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="L34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
       <c r="J35" t="s">
         <v>46</v>
       </c>
-      <c r="K35" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="K35" s="53" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L35" s="53" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
       </c>
-      <c r="K36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="K36" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="J37" t="s">
         <v>46</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
       <c r="J38" t="s">
         <v>46</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="L39" t="s">
+      <c r="L39" s="59" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>29</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="L40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L40" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
       <c r="J41" t="s">
         <v>46</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>29</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="L42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L42" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>29</v>
       </c>
       <c r="J43" t="s">
         <v>46</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
       <c r="J44" t="s">
         <v>46</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="53" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L45" t="s">
+      <c r="L45" s="53" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
       <c r="J46" t="s">
         <v>46</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
         <v>45</v>
       </c>
@@ -3832,23 +4433,23 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="50"/>
+      <c r="O52" s="50"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
@@ -3895,23 +4496,23 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="50"/>
+      <c r="M57" s="50"/>
+      <c r="N57" s="50"/>
+      <c r="O57" s="50"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J58" t="s">

--- a/Gold Platinum/Teste de Valores na Venda2.0.xlsx
+++ b/Gold Platinum/Teste de Valores na Venda2.0.xlsx
@@ -305,12 +305,180 @@
         </r>
       </text>
     </comment>
+    <comment ref="N24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus do usuário do cartão.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus do usuário do cartão.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus do usuário do cartão.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus para o projeto social.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus para o projeto social.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus para o projeto social.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rafael Augusto Diniz dos Santos Reis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esse 0,01 de subfranquia foi jogado como bônus para o projeto social.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="94">
   <si>
     <t>Operação</t>
   </si>
@@ -546,9 +714,6 @@
     <t>0,0375/0,025/0</t>
   </si>
   <si>
-    <t>0,00625/0,00375/25</t>
-  </si>
-  <si>
     <t>Venda 17</t>
   </si>
   <si>
@@ -564,12 +729,6 @@
     <t>Venda 36</t>
   </si>
   <si>
-    <t>0,015625/0/25</t>
-  </si>
-  <si>
-    <t>Estab De Fmaster</t>
-  </si>
-  <si>
     <t>0,0375/0,015/0</t>
   </si>
   <si>
@@ -579,7 +738,40 @@
     <t>0,00375/0,00375/25</t>
   </si>
   <si>
-    <t>0/0/0,01</t>
+    <t>0,0375/0,015/0,1</t>
+  </si>
+  <si>
+    <t>SF Com um F de Pai</t>
+  </si>
+  <si>
+    <t>0,0525/0/0,05</t>
+  </si>
+  <si>
+    <t>Estab Indicado Ple fm Gold</t>
+  </si>
+  <si>
+    <t>0,015625/0,009375/25</t>
+  </si>
+  <si>
+    <t>0,0625/0/0,005</t>
+  </si>
+  <si>
+    <t>0,0525/0/0,1</t>
+  </si>
+  <si>
+    <t>0/0,015625/25</t>
+  </si>
+  <si>
+    <t>0,0075/0/25</t>
+  </si>
+  <si>
+    <t>0,075/0,03/0</t>
+  </si>
+  <si>
+    <t>0,175/0/0</t>
+  </si>
+  <si>
+    <t>0,01875/0,04375/25</t>
   </si>
 </sst>
 </file>
@@ -645,7 +837,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,12 +864,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,12 +882,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -853,68 +1051,6 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color theme="8" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1113,73 +1249,53 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1620,11 +1736,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1761054496"/>
-        <c:axId val="1761045792"/>
+        <c:axId val="187024784"/>
+        <c:axId val="187017168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1761054496"/>
+        <c:axId val="187024784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1783,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761045792"/>
+        <c:crossAx val="187017168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1761045792"/>
+        <c:axId val="187017168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1842,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761054496"/>
+        <c:crossAx val="187024784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2987,8 +3103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3064,558 +3180,562 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-    </row>
-    <row r="3" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+    </row>
+    <row r="3" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="51">
         <v>21</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="51">
         <v>10</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="51">
         <v>0.5</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="51">
         <v>0</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="51">
         <v>8.5</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="51">
         <v>1</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="28">
+      <c r="O3" s="51">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="52" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>21</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="27">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="79" t="s">
+    <row r="5" spans="1:17" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="57">
         <v>21</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="57">
         <v>10</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="57">
         <v>0.5</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="79">
+      <c r="G5" s="57">
         <v>0</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="57">
         <v>8.5</v>
       </c>
-      <c r="I5" s="79">
+      <c r="I5" s="57">
         <v>1</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="79">
+      <c r="M5" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="57">
         <v>0.86375000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="25" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="P5" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="28">
         <v>24</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
         <v>10</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>0.5</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="28">
         <v>0</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="28">
         <v>8.5</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="28">
         <v>1</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="28">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="31" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="54">
         <v>24</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="54">
         <v>10</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="54">
         <v>0.5</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="54">
         <v>0</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="54">
         <v>8.5</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="54">
         <v>1</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="32" t="s">
+      <c r="N7" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="54">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="25" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:17" s="57" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="57">
         <v>21</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="57">
         <v>10</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="57">
         <v>0.5</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="57">
         <v>0</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="57">
         <v>8.5</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="57">
         <v>1</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8" s="57">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="24">
         <v>24</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="24">
         <v>10</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="24">
         <v>0.5</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="24">
         <v>0</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="24">
         <v>8.5</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="24">
         <v>1</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="34">
+      <c r="N9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="24">
+        <v>24</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="24">
+        <v>10</v>
+      </c>
+      <c r="E10" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+      <c r="H10" s="24">
+        <v>8.5</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="57">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="11">
+        <v>24</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>8.5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="35">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P9" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="36">
-        <v>24</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="36">
-        <v>10</v>
-      </c>
-      <c r="E10" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="36">
-        <v>0</v>
-      </c>
-      <c r="H10" s="36">
-        <v>8.5</v>
-      </c>
-      <c r="I10" s="36">
-        <v>1</v>
-      </c>
-      <c r="J10" s="36" t="s">
+    </row>
+    <row r="13" spans="1:17" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="36">
+      <c r="K13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="34">
         <v>0.86375000000000002</v>
       </c>
-      <c r="P10" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    </row>
+    <row r="14" spans="1:17" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26" t="s">
+      <c r="J14" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="26">
-        <v>0.86124999999999996</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q11" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79" t="s">
+      <c r="K14" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="34">
+        <v>0.86375000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="81">
-        <v>24</v>
-      </c>
-      <c r="C12" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="81">
-        <v>10</v>
-      </c>
-      <c r="E12" s="81">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="81">
-        <v>0</v>
-      </c>
-      <c r="H12" s="81">
-        <v>8.5</v>
-      </c>
-      <c r="I12" s="81">
-        <v>1</v>
-      </c>
-      <c r="J12" s="79" t="s">
+      <c r="J15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="79">
-        <v>0.86375000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="O13">
-        <v>0.86375000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="52">
-        <v>0.86375000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="52" t="s">
+      <c r="L15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="52">
+      <c r="O15" s="34">
         <v>0.86375000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
         <v>47</v>
@@ -3631,249 +3751,288 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-    </row>
-    <row r="18" spans="1:17" s="26" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+    </row>
+    <row r="18" spans="1:17" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="65">
-        <v>27</v>
-      </c>
-      <c r="C18" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="65">
+      <c r="B18" s="44">
+        <v>21</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="44">
         <v>10</v>
       </c>
-      <c r="E18" s="65">
+      <c r="E18" s="44">
         <v>0.5</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="44">
         <v>0</v>
       </c>
-      <c r="H18" s="65">
+      <c r="H18" s="44">
         <v>9.5</v>
       </c>
-      <c r="I18" s="65">
+      <c r="I18" s="44">
         <v>0.01</v>
       </c>
-      <c r="J18" s="66" t="s">
+      <c r="J18" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="66" t="s">
+      <c r="L18" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="66" t="s">
+      <c r="N18" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="O18" s="66">
+      <c r="O18" s="45">
         <v>0.76375000000000004</v>
       </c>
-      <c r="P18" s="66" t="s">
+      <c r="P18" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="Q18" s="67" t="s">
+      <c r="Q18" s="46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="37">
+        <v>21</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="37">
+        <v>10</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0</v>
+      </c>
+      <c r="H19" s="37">
+        <v>9.5</v>
+      </c>
+      <c r="I19" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="37">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="57" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="57">
+        <v>21</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="57">
+        <v>10</v>
+      </c>
+      <c r="E20" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="57">
+        <v>0</v>
+      </c>
+      <c r="H20" s="57">
+        <v>9.5</v>
+      </c>
+      <c r="I20" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="J20" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="M20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="57">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="P20" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="40">
+        <v>25</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="40">
+        <v>10</v>
+      </c>
+      <c r="E21" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
+      <c r="H21" s="40">
+        <v>9.5</v>
+      </c>
+      <c r="I21" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="J21" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="O21" s="40">
+        <v>0.76375000000000004</v>
+      </c>
+      <c r="P21" s="40" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="68" t="s">
+      <c r="Q21" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="69">
-        <v>27</v>
-      </c>
-      <c r="C19" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="69">
+      <c r="B22" s="48">
+        <v>25</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="48">
         <v>10</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E22" s="48">
         <v>0.5</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F22" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G22" s="48">
         <v>0</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H22" s="48">
         <v>9.5</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I22" s="48">
         <v>0.01</v>
       </c>
-      <c r="J19" s="69" t="s">
+      <c r="J22" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="K19" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="69" t="s">
+      <c r="K22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="N19" s="69" t="s">
+      <c r="M22" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O22" s="48">
         <v>0.76375000000000004</v>
       </c>
-      <c r="P19" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="70" t="s">
+      <c r="P22" s="48" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" s="79" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="79" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="79" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="72">
-        <v>25</v>
-      </c>
-      <c r="C21" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="72">
-        <v>10</v>
-      </c>
-      <c r="E21" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="72">
-        <v>0</v>
-      </c>
-      <c r="H21" s="72">
-        <v>9.5</v>
-      </c>
-      <c r="I21" s="72">
-        <v>0.01</v>
-      </c>
-      <c r="J21" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="M21" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="O21" s="72">
-        <v>0.76375000000000004</v>
-      </c>
-      <c r="P21" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q21" s="73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="75">
-        <v>25</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="75">
-        <v>10</v>
-      </c>
-      <c r="E22" s="75">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="75">
-        <v>0</v>
-      </c>
-      <c r="H22" s="75">
-        <v>9.5</v>
-      </c>
-      <c r="I22" s="75">
-        <v>0.01</v>
-      </c>
-      <c r="J22" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="L22" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="N22" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="O22" s="75">
-        <v>0.76375000000000004</v>
-      </c>
-      <c r="P22" s="75" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q22" s="76" t="s">
+      <c r="Q22" s="49" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3887,228 +4046,226 @@
       <c r="J23" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="53" t="s">
+      <c r="K23" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="53" t="s">
+      <c r="L23" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="53" t="s">
-        <v>85</v>
-      </c>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="40">
         <v>25</v>
       </c>
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="84">
+      <c r="D24" s="40">
         <v>10</v>
       </c>
-      <c r="E24" s="84">
+      <c r="E24" s="40">
         <v>0.5</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="40">
         <v>0</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="40">
         <v>9.5</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M24" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="40">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="48">
+        <v>25</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="48">
+        <v>10</v>
+      </c>
+      <c r="E25" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="48">
+        <v>0</v>
+      </c>
+      <c r="H25" s="48">
+        <v>9.5</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="48">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="P25" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26">
+        <v>9.5</v>
+      </c>
+      <c r="I26" s="26">
         <v>0.01</v>
       </c>
-      <c r="J24" s="84" t="s">
+      <c r="J26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="K24" s="84" t="s">
+      <c r="K26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="84" t="s">
+      <c r="L26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O26" s="26">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="N24" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="O24" s="84">
-        <v>0.76124999999999998</v>
-      </c>
-      <c r="P24" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="86" t="s">
+      <c r="L27" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="87">
-        <v>25</v>
-      </c>
-      <c r="C25" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="87">
-        <v>10</v>
-      </c>
-      <c r="E25" s="87">
-        <v>0.5</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="87">
-        <v>0</v>
-      </c>
-      <c r="H25" s="87">
-        <v>9.5</v>
-      </c>
-      <c r="I25" s="87">
-        <v>0.01</v>
-      </c>
-      <c r="J25" s="87" t="s">
+      <c r="J28" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="N25" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="O25" s="87">
-        <v>0.76124999999999998</v>
-      </c>
-      <c r="P25" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" s="88" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="77" t="s">
+      <c r="K28" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="78">
-        <v>25</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="78">
-        <v>10</v>
-      </c>
-      <c r="E26" s="78">
-        <v>0.5</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="78">
-        <v>0</v>
-      </c>
-      <c r="H26" s="78">
-        <v>9.5</v>
-      </c>
-      <c r="I26" s="78">
-        <v>0.01</v>
-      </c>
-      <c r="J26" s="26" t="s">
+      <c r="J29" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="M26" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="O26" s="78">
-        <v>0.76124999999999998</v>
-      </c>
-      <c r="P26" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q26" s="78" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="K29" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="79" t="s">
+      <c r="J30" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="79" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="s">
-        <v>45</v>
-      </c>
-      <c r="K28" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="53" t="s">
+      <c r="K30" s="34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="52" t="s">
+      <c r="L30" s="34" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4119,184 +4276,470 @@
       <c r="J31" t="s">
         <v>45</v>
       </c>
-      <c r="K31" s="53" t="s">
+      <c r="K31" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L31" s="53" t="s">
+      <c r="L31" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="50" t="s">
+      <c r="A32" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+    </row>
+    <row r="33" spans="1:17" s="24" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2" t="s">
+      <c r="B33" s="40">
+        <v>21</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="40">
+        <v>10</v>
+      </c>
+      <c r="E33" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="H33" s="40">
+        <v>8.5</v>
+      </c>
+      <c r="I33" s="40">
+        <v>1</v>
+      </c>
+      <c r="J33" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="K33" s="62" t="s">
+      <c r="K33" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="L33" s="62" t="s">
+      <c r="L33" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="3"/>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="M33" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="N33" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="O33" s="40">
+        <v>0.86375000000000002</v>
+      </c>
+      <c r="P33" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9" t="s">
+      <c r="B34" s="48">
+        <v>21</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="48">
+        <v>10</v>
+      </c>
+      <c r="E34" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="48">
+        <v>0.01</v>
+      </c>
+      <c r="H34" s="48">
+        <v>8.5</v>
+      </c>
+      <c r="I34" s="48">
+        <v>1</v>
+      </c>
+      <c r="J34" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="K34" s="63" t="s">
+      <c r="K34" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="L34" s="63" t="s">
+      <c r="L34" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="M34" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="48">
+        <v>0.86375000000000002</v>
+      </c>
+      <c r="P34" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="57" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="J35" t="s">
+      <c r="B35" s="63">
+        <v>21</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="63">
+        <v>10</v>
+      </c>
+      <c r="E35" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" s="63">
+        <v>0.01</v>
+      </c>
+      <c r="H35" s="63">
+        <v>8.5</v>
+      </c>
+      <c r="I35" s="63">
+        <v>1</v>
+      </c>
+      <c r="J35" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="K35" s="53" t="s">
+      <c r="K35" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="L35" s="53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="M35" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="O35" s="63">
+        <v>0.86375000000000002</v>
+      </c>
+      <c r="P35" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q35" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J36" t="s">
+      <c r="B36" s="40">
+        <v>25</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="40">
+        <v>10</v>
+      </c>
+      <c r="E36" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="40">
+        <v>0.01</v>
+      </c>
+      <c r="H36" s="40">
+        <v>8.5</v>
+      </c>
+      <c r="I36" s="40">
+        <v>1</v>
+      </c>
+      <c r="J36" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="54" t="s">
+      <c r="K36" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="L36" s="55" t="s">
+      <c r="L36" s="60" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="M36" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="24">
+        <v>0.86375000000000002</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="J37" t="s">
+      <c r="B37" s="48">
+        <v>25</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="48">
+        <v>10</v>
+      </c>
+      <c r="E37" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="48">
+        <v>0.01</v>
+      </c>
+      <c r="H37" s="48">
+        <v>8.5</v>
+      </c>
+      <c r="I37" s="48">
+        <v>1</v>
+      </c>
+      <c r="J37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="56" t="s">
+      <c r="K37" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="57" t="s">
+      <c r="L37" s="60" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="24">
+        <v>0.86375000000000002</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
       <c r="J38" t="s">
         <v>46</v>
       </c>
-      <c r="K38" s="53" t="s">
+      <c r="K38" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L38" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J39" t="s">
+      <c r="B39" s="40">
+        <v>25</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="40">
+        <v>10</v>
+      </c>
+      <c r="E39" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="40">
+        <v>0.02</v>
+      </c>
+      <c r="H39" s="40">
+        <v>8.5</v>
+      </c>
+      <c r="I39" s="40">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" s="40">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="P39" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="48">
+        <v>25</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="48">
+        <v>10</v>
+      </c>
+      <c r="E40" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="48">
+        <v>0.02</v>
+      </c>
+      <c r="H40" s="48">
+        <v>8.5</v>
+      </c>
+      <c r="I40" s="48">
+        <v>1</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="M40" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="48">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="P40" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="26">
+        <v>25</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="26">
+        <v>10</v>
+      </c>
+      <c r="E41" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="H41" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="I41" s="26">
+        <v>1</v>
+      </c>
+      <c r="J41" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="K41" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L39" s="59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
-        <v>46</v>
-      </c>
-      <c r="K40" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="53" t="s">
+      <c r="L41" s="25" t="s">
         <v>43</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="O41" s="26">
+        <v>0.86124999999999996</v>
+      </c>
+      <c r="P41" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -4306,52 +4749,52 @@
       <c r="J42" t="s">
         <v>46</v>
       </c>
-      <c r="K42" s="53" t="s">
+      <c r="K42" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L42" s="53" t="s">
+      <c r="L42" s="35" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:17" s="34" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K43" s="53" t="s">
+      <c r="K43" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L43" s="53" t="s">
+      <c r="L43" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:17" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="53" t="s">
+      <c r="K44" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="53" t="s">
+      <c r="L44" s="59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:17" s="59" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="K45" s="53" t="s">
+      <c r="K45" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="53" t="s">
+      <c r="L45" s="59" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4359,34 +4802,58 @@
       <c r="A46" t="s">
         <v>29</v>
       </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H46">
+        <v>8.5</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
       <c r="J46" t="s">
         <v>46</v>
       </c>
-      <c r="K46" s="53" t="s">
+      <c r="K46" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="L46" s="53" t="s">
+      <c r="L46" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
@@ -4399,7 +4866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>45</v>
       </c>
@@ -4410,7 +4877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
         <v>45</v>
       </c>
@@ -4421,7 +4888,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>45</v>
       </c>
@@ -4432,26 +4899,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="50"/>
-      <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
         <v>46</v>
       </c>
@@ -4462,18 +4929,57 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J54" t="s">
+    <row r="54" spans="1:17" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="68">
+        <v>25</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="68">
+        <v>10</v>
+      </c>
+      <c r="E54" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="H54" s="68">
+        <v>8.5</v>
+      </c>
+      <c r="I54" s="68">
+        <v>1</v>
+      </c>
+      <c r="J54" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="68" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M54" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="N54" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="O54" s="68">
+        <v>1.21</v>
+      </c>
+      <c r="P54" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q54" s="68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>46</v>
       </c>
@@ -4484,7 +4990,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
         <v>46</v>
       </c>
@@ -4495,26 +5001,26 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="50" t="s">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
         <v>47</v>
       </c>
@@ -4525,7 +5031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J59" t="s">
         <v>47</v>
       </c>
@@ -4536,7 +5042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J60" t="s">
         <v>47</v>
       </c>
@@ -4547,7 +5053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J61" t="s">
         <v>47</v>
       </c>
